--- a/DS3_WeaponDMGCalculator_1.00.xlsx
+++ b/DS3_WeaponDMGCalculator_1.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willp\Downloads\SQL_Projects\DarkSoulsThree_WeponData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C443FA8-D25C-4608-94EA-8A88269DA93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{894A0AEB-82E1-4830-81F1-A974C8355904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9660" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9661" uniqueCount="1794">
   <si>
     <t>Daggers</t>
   </si>
@@ -5534,6 +5534,9 @@
   </si>
   <si>
     <t>- Four_Pronged_Plow currently does not work</t>
+  </si>
+  <si>
+    <t>- saint bident need to add faith scaling to physcial dmg</t>
   </si>
 </sst>
 </file>
@@ -5791,7 +5794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5875,6 +5878,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6496,7 +6500,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F4:F6"/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6519,6 +6523,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="kvXA0eeYI1VFgTP4Cw+VZ3kmrM/Pc1Uxx9ym0dpNio2inhN2lNnDn3Xdh17YN3KOqLd5gjJG3Y1qKIDZh54HdQ==" saltValue="CL/aOQNgDw1qQM0sj/MfOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6529,8 +6534,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="147" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="147" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6565,7 +6570,7 @@
         <v>261</v>
       </c>
       <c r="C4" s="30">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,7 +6578,7 @@
         <v>263</v>
       </c>
       <c r="C5" s="30">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6589,7 +6594,7 @@
         <v>264</v>
       </c>
       <c r="C7" s="30">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6597,7 +6602,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="30">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6605,7 +6610,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="30">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6613,7 +6618,7 @@
         <v>265</v>
       </c>
       <c r="C10" s="30">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6621,7 +6626,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="30">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6629,10 +6634,11 @@
         <v>266</v>
       </c>
       <c r="C12" s="30">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="WD5DLrLmGG2y9580YbvdX63hjd/e/YcMgca5sxrtfxghT9tujHuwYF7KvG47owt0p0gkkMSeu87UzAqkVlHfog==" saltValue="ThExSMB82wgMawXTEIN9qg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Level Number Invaild" error="Level number must be between the range 1-99." sqref="C4:C12" xr:uid="{A5686ABA-35A5-479C-8964-692D16EB6407}">
       <formula1>1</formula1>
@@ -6651,10 +6657,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D629FC03-1905-4F97-A1FA-51F30C8E0E3B}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6675,7 +6681,7 @@
     </row>
     <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
-        <v>558</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -6688,7 +6694,7 @@
     </row>
     <row r="6" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="32" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
       <c r="C6" s="32"/>
     </row>
@@ -6768,11 +6774,11 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="35">
         <f>VLOOKUP(_xlfn.CONCAT($B$6,$C$6),LetterValue[],B7,FALSE)</f>
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="C9" s="36">
         <f>$B$9*(IF(B6="Sunlight_Straight_Sword",Coefficient_Calculation!C21,0)+Coefficient_Calculation!$C$6+Coefficient_Calculation!$E$6+Coefficient_Calculation!$G$6)</f>
-        <v>89.66148189599987</v>
+        <v>24.6</v>
       </c>
       <c r="D9" s="35">
         <f>VLOOKUP(_xlfn.CONCAT($B$6,$C$6),LetterValue[#All],D7,FALSE)</f>
@@ -6784,11 +6790,11 @@
       </c>
       <c r="F9" s="35">
         <f>VLOOKUP(_xlfn.CONCAT($B$6,$C$6),LetterValue[#All],F7,FALSE)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G9" s="36">
         <f>$F$9*(Coefficient_Calculation!$C$16+Coefficient_Calculation!$E$16)</f>
-        <v>0.97835469635200012</v>
+        <v>0</v>
       </c>
       <c r="H9" s="35">
         <f>VLOOKUP(_xlfn.CONCAT($B$6,$C$6),LetterValue[#All],H7,FALSE)</f>
@@ -6808,19 +6814,19 @@
       </c>
       <c r="L9" s="35" t="str">
         <f>VLOOKUP(_xlfn.CONCAT($B$6,$C$6),LetterValue[[#All],[Daggers]:[Faith]],L7,FALSE)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="M9" s="35" t="str">
         <f>VLOOKUP(_xlfn.CONCAT($B$6,$C$6),LetterValue[[#All],[Daggers]:[Faith]],M7,FALSE)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="N9" s="35" t="str">
         <f>VLOOKUP(_xlfn.CONCAT($B$6,$C$6),LetterValue[[#All],[Daggers]:[Faith]],N7,FALSE)</f>
-        <v>E</v>
+        <v>-</v>
       </c>
       <c r="O9" s="35" t="str">
         <f>VLOOKUP(_xlfn.CONCAT($B$6,$C$6),LetterValue[[#All],[Daggers]:[Faith]],O7,FALSE)</f>
-        <v>E</v>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -6832,7 +6838,7 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="36">
         <f>SUM(B9:K9)</f>
-        <v>286.63983659235191</v>
+        <v>147.6</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -6860,7 +6866,13 @@
         <v>1792</v>
       </c>
     </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="45" t="s">
+        <v>1793</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="7VNeJP/WCFkOsuA1o3A9ubxbrEAjhJCntmg2j46BYyNVLDsuig9NU4+S3WnhhIwIsQgjMGB6JplK/WH9CnBNNQ==" saltValue="WZwQRr/enVkcbkndDMrwXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B3">
     <cfRule type="cellIs" priority="1" operator="equal">
       <formula>"Dagger"</formula>
@@ -6901,7 +6913,7 @@
   <dimension ref="B3:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,21 +6936,21 @@
       </c>
       <c r="C4">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],2,FALSE),SaturationValue[#All],(Character_Level!$C$8)+2))/100</f>
-        <v>0.77500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="s">
         <v>272</v>
       </c>
       <c r="E4">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],2,FALSE),SaturationValue[#All],(Character_Level!$C$9)+2))/100</f>
-        <v>0.30403704739999898</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="s">
         <v>272</v>
       </c>
       <c r="G4">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],2,FALSE),SaturationValue[#All],(Character_Level!$C$12)+2))/100</f>
-        <v>0.75</v>
+        <v>0.116544642599999</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -6947,14 +6959,14 @@
       </c>
       <c r="C5">
         <f>VLOOKUP(_xlfn.CONCAT(Weapon_Dmg!$B$6,Weapon_Dmg!$C$6),LetterValue[],13,FALSE)</f>
-        <v>0.54054054054054002</v>
+        <v>0.31</v>
       </c>
       <c r="D5" t="s">
         <v>275</v>
       </c>
       <c r="E5">
         <f>VLOOKUP(_xlfn.CONCAT(Weapon_Dmg!$B$6,Weapon_Dmg!$C$6),LetterValue[#All],14,FALSE)</f>
-        <v>0.21621621621621601</v>
+        <v>0.49</v>
       </c>
       <c r="F5" t="s">
         <v>277</v>
@@ -6970,14 +6982,14 @@
       </c>
       <c r="C6">
         <f>$C$4*$C$5</f>
-        <v>0.41891891891891853</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="D6" t="s">
         <v>276</v>
       </c>
       <c r="E6">
         <f>E4*E5</f>
-        <v>6.573773997837809E-2</v>
+        <v>0.1225</v>
       </c>
       <c r="F6" t="s">
         <v>278</v>
@@ -6998,7 +7010,7 @@
       </c>
       <c r="C9">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],3,FALSE),SaturationValue[#All],(Character_Level!$C$10)+2))/100</f>
-        <v>0.55588335020000001</v>
+        <v>0.33065921050000002</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -7007,7 +7019,7 @@
       </c>
       <c r="C10">
         <f>VLOOKUP(_xlfn.CONCAT(Weapon_Dmg!$B$6,Weapon_Dmg!$C$6),LetterValue[],15,FALSE)</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -7016,7 +7028,7 @@
       </c>
       <c r="C11">
         <f>$C$9*$C$10</f>
-        <v>4.4470668016000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -7030,14 +7042,14 @@
       </c>
       <c r="C14">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],4,FALSE),SaturationValue[#All],(Character_Level!$C$10)+2))/100</f>
-        <v>0.55588335020000001</v>
+        <v>0.33065921050000002</v>
       </c>
       <c r="D14" t="s">
         <v>283</v>
       </c>
       <c r="E14">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],4,FALSE),SaturationValue[#All],(Character_Level!$C$11)+2))/100</f>
-        <v>0.55588335020000001</v>
+        <v>0.30403704739999898</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -7046,14 +7058,14 @@
       </c>
       <c r="C15">
         <f>VLOOKUP(_xlfn.CONCAT(Weapon_Dmg!$B$6,Weapon_Dmg!$C$6),LetterValue[#All],15,FALSE)</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>286</v>
       </c>
       <c r="E15">
         <f>VLOOKUP(_xlfn.CONCAT(Weapon_Dmg!$B$6,Weapon_Dmg!$C$6),LetterValue[#All],16,FALSE)</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -7062,14 +7074,14 @@
       </c>
       <c r="C16">
         <f>C14*C15</f>
-        <v>4.4470668016000005E-2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>287</v>
       </c>
       <c r="E16">
         <f>E14*E15</f>
-        <v>4.4470668016000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -7083,7 +7095,7 @@
       </c>
       <c r="C19">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],5,FALSE),SaturationValue[#All],(Character_Level!$C$10)+2))/100</f>
-        <v>0.55588335020000001</v>
+        <v>0.33065921050000002</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -7092,7 +7104,7 @@
       </c>
       <c r="C20">
         <f>VLOOKUP(_xlfn.CONCAT(Weapon_Dmg!$B$6,Weapon_Dmg!$C$6),LetterValue[#All],16,FALSE)</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
@@ -7101,7 +7113,7 @@
       </c>
       <c r="C21">
         <f>C19*C20</f>
-        <v>4.4470668016000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -7115,14 +7127,14 @@
       </c>
       <c r="C24">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],6,FALSE),SaturationValue[#All],(Character_Level!$C$10)+2))/100</f>
-        <v>0.55588335020000001</v>
+        <v>0.33065921050000002</v>
       </c>
       <c r="D24" t="s">
         <v>282</v>
       </c>
       <c r="E24">
         <f>(VLOOKUP(VLOOKUP(Weapon_Dmg!$B$6,SaturationNum[#All],6,FALSE),SaturationValue[#All],(Character_Level!$C$11)+2))/100</f>
-        <v>0.55588335020000001</v>
+        <v>0.30403704739999898</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -7131,14 +7143,14 @@
       </c>
       <c r="C25">
         <f>VLOOKUP(_xlfn.CONCAT(Weapon_Dmg!$B$6,Weapon_Dmg!$C$6),LetterValue[#All],15,FALSE)</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>286</v>
       </c>
       <c r="E25">
         <f>VLOOKUP(_xlfn.CONCAT(Weapon_Dmg!$B$6,Weapon_Dmg!$C$6),LetterValue[#All],16,FALSE)</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -7147,18 +7159,18 @@
       </c>
       <c r="C26">
         <f>C24*C25</f>
-        <v>4.4470668016000005E-2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>287</v>
       </c>
       <c r="E26">
         <f>E24*E25</f>
-        <v>4.4470668016000005E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OUExGL+wBSRBpYlI8LqL5GeIHR+0crig0tcZRPjoRnsKbKqmXY3N3BxzNd7IWVoOt+G7PK69Y4hg4QXTcyw4Lg==" saltValue="MtcISBLY040S3dsBX5WdCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7169,7 +7181,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:R1593"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
+    <sheetView topLeftCell="A355" zoomScale="104" workbookViewId="0">
       <selection activeCell="T378" sqref="T378"/>
     </sheetView>
   </sheetViews>
@@ -84594,6 +84606,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="wOeFpq16BwSoZdQoZS9DVoW7bl+S835qH4Krt3IZ7xBUJivgh1i+PHZDmG/Nr5wT99xLBDmJr+1T3Y7RJYj8rw==" saltValue="ivJbwM4hYbV2SerZjJpt8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -84607,7 +84620,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:M178"/>
   <sheetViews>
-    <sheetView topLeftCell="C162" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="H175" sqref="H175"/>
     </sheetView>
   </sheetViews>
@@ -84652,11 +84665,11 @@
         <v>293</v>
       </c>
       <c r="L2" s="43" t="str" cm="1">
-        <f t="array" ref="L2:M12">_xlfn._xlws.FILTER(Table4[], Table4[Weapon_Type]=Weapon_Dmg!B3)</f>
-        <v>Zweihander</v>
+        <f t="array" ref="L2:M16">_xlfn._xlws.FILTER(Table4[], Table4[Weapon_Type]=Weapon_Dmg!B3)</f>
+        <v>Carthus_Curved_Sword</v>
       </c>
       <c r="M2" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -84689,10 +84702,10 @@
         <v>56</v>
       </c>
       <c r="L3" s="43" t="str">
-        <v>Greatsword</v>
+        <v>Warden_Twinblades</v>
       </c>
       <c r="M3" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -84725,10 +84738,10 @@
         <v>56</v>
       </c>
       <c r="L4" s="43" t="str">
-        <v>Farron_Greatsword</v>
+        <v>Storm_Curved_Sword</v>
       </c>
       <c r="M4" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -84761,10 +84774,10 @@
         <v>56</v>
       </c>
       <c r="L5" s="43" t="str">
-        <v>Fume_Ultra_Greatsword</v>
+        <v>Shotel</v>
       </c>
       <c r="M5" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -84797,10 +84810,10 @@
         <v>56</v>
       </c>
       <c r="L6" s="43" t="str">
-        <v>Profaned_Greatsword</v>
+        <v>Sellsword_Twinblades</v>
       </c>
       <c r="M6" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -84833,10 +84846,10 @@
         <v>56</v>
       </c>
       <c r="L7" s="43" t="str">
-        <v>Black_Knight_Greatsword</v>
+        <v>Rotten_Ghru_Curved_Sword</v>
       </c>
       <c r="M7" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -84869,10 +84882,10 @@
         <v>56</v>
       </c>
       <c r="L8" s="43" t="str">
-        <v>Cathedral_Knight_Greatsword</v>
+        <v>Scimitar</v>
       </c>
       <c r="M8" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -84905,10 +84918,10 @@
         <v>56</v>
       </c>
       <c r="L9" s="43" t="str">
-        <v>Lorians_Greatsword</v>
+        <v>Pontiff_Knight_Curved_Sword</v>
       </c>
       <c r="M9" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -84941,10 +84954,10 @@
         <v>56</v>
       </c>
       <c r="L10" s="43" t="str">
-        <v>Lothric_Knight_Greatsword</v>
+        <v>Painting_Guardians_Curved_Sword</v>
       </c>
       <c r="M10" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -84977,10 +84990,10 @@
         <v>56</v>
       </c>
       <c r="L11" s="43" t="str">
-        <v>Astora_Greatsword</v>
+        <v>Follower_Sabre</v>
       </c>
       <c r="M11" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -85009,10 +85022,10 @@
         <v>56</v>
       </c>
       <c r="L12" s="43" t="str">
-        <v>Ringed_Knight_Paired_Greatswords</v>
+        <v>Falchion</v>
       </c>
       <c r="M12" t="str">
-        <v>Ultra_Greatsword</v>
+        <v>Curved_Sword</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -85040,6 +85053,12 @@
       <c r="J13" t="s">
         <v>56</v>
       </c>
+      <c r="L13" s="43" t="str">
+        <v>Dancers_Enchanted_Swords</v>
+      </c>
+      <c r="M13" t="str">
+        <v>Curved_Sword</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -85066,6 +85085,12 @@
       <c r="J14" t="s">
         <v>56</v>
       </c>
+      <c r="L14" s="43" t="str">
+        <v>Crescent_Moon_Sword</v>
+      </c>
+      <c r="M14" t="str">
+        <v>Curved_Sword</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -85092,6 +85117,12 @@
       <c r="J15" t="s">
         <v>461</v>
       </c>
+      <c r="L15" s="43" t="str">
+        <v>Demons_Scar</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Curved_Sword</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -85118,6 +85149,12 @@
       <c r="J16" t="s">
         <v>461</v>
       </c>
+      <c r="L16" s="43" t="str">
+        <v>Carthus_Shotel</v>
+      </c>
+      <c r="M16" t="str">
+        <v>Curved_Sword</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -89332,6 +89369,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="4oK8nSTgfcbMUZfVcWXtAzncYQUZRyF9zPckilpK/dYrqFWjpF1JX025oN0hIQcOiyOJ4MbONNc83ytPdRNmpQ==" saltValue="YwJp1swwcesl0V0k7+ZXsA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -93019,7 +93057,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DsnsRCQdzknZWlqIJPwWVnlaLElE9nRr3JxR/sh8sMY3EeEafwDo60+nuCRhXwbuU5jUzSLQY2ZEXttVLO5zgA==" saltValue="tpVEJjogwQUOKncgmXv18A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -93033,7 +93071,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -93856,6 +93894,7 @@
       <c r="I44" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ef2u/9VsLXW5A6Iy8xNNJHPKHksYulM9j5i8PFHYVAx7eU6twamPXx+s6Ue5R5vwIYINgqkM5d2PZIZlisj+lw==" saltValue="oIGiX3NESwBmUrMxuLFLNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{C3D1663E-CC98-42E4-8584-5C783BFB9789}"/>
   </hyperlinks>
